--- a/GeoSimModel/data/R_table.XLSX
+++ b/GeoSimModel/data/R_table.XLSX
@@ -479,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="M51" sqref="M51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,6 +1095,1350 @@
         <v>1</v>
       </c>
     </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10">
+        <v>45</v>
+      </c>
+      <c r="B20" s="10">
+        <v>16600</v>
+      </c>
+      <c r="C20" s="10">
+        <v>11000</v>
+      </c>
+      <c r="D20" s="10">
+        <v>9200</v>
+      </c>
+      <c r="E20" s="10">
+        <v>6800</v>
+      </c>
+      <c r="F20" s="10">
+        <v>4700</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2550</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1600</v>
+      </c>
+      <c r="I20" s="11">
+        <v>1</v>
+      </c>
+      <c r="J20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="10">
+        <v>50</v>
+      </c>
+      <c r="B21" s="10">
+        <v>17400</v>
+      </c>
+      <c r="C21" s="10">
+        <v>11500</v>
+      </c>
+      <c r="D21" s="10">
+        <v>9800</v>
+      </c>
+      <c r="E21" s="10">
+        <v>7200</v>
+      </c>
+      <c r="F21" s="10">
+        <v>5000</v>
+      </c>
+      <c r="G21" s="10">
+        <v>2700</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1700</v>
+      </c>
+      <c r="I21" s="12">
+        <v>1</v>
+      </c>
+      <c r="J21" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="10">
+        <v>55</v>
+      </c>
+      <c r="B22" s="10">
+        <v>18200</v>
+      </c>
+      <c r="C22" s="10">
+        <v>12000</v>
+      </c>
+      <c r="D22" s="10">
+        <v>10400</v>
+      </c>
+      <c r="E22" s="10">
+        <v>7600</v>
+      </c>
+      <c r="F22" s="10">
+        <v>5300</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2850</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1800</v>
+      </c>
+      <c r="I22" s="11">
+        <v>1</v>
+      </c>
+      <c r="J22" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="10">
+        <v>60</v>
+      </c>
+      <c r="B23" s="10">
+        <v>19000</v>
+      </c>
+      <c r="C23" s="10">
+        <v>12500</v>
+      </c>
+      <c r="D23" s="10">
+        <v>11000</v>
+      </c>
+      <c r="E23" s="10">
+        <v>8000</v>
+      </c>
+      <c r="F23" s="10">
+        <v>5600</v>
+      </c>
+      <c r="G23" s="10">
+        <v>3000</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1900</v>
+      </c>
+      <c r="I23" s="12">
+        <v>1</v>
+      </c>
+      <c r="J23" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="10">
+        <v>65</v>
+      </c>
+      <c r="B24" s="10">
+        <v>19800</v>
+      </c>
+      <c r="C24" s="10">
+        <v>13000</v>
+      </c>
+      <c r="D24" s="10">
+        <v>11600</v>
+      </c>
+      <c r="E24" s="10">
+        <v>8400</v>
+      </c>
+      <c r="F24" s="10">
+        <v>5900</v>
+      </c>
+      <c r="G24" s="10">
+        <v>3150</v>
+      </c>
+      <c r="H24" s="10">
+        <v>2000</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1</v>
+      </c>
+      <c r="J24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="10">
+        <v>70</v>
+      </c>
+      <c r="B25" s="10">
+        <v>20600</v>
+      </c>
+      <c r="C25" s="10">
+        <v>13500</v>
+      </c>
+      <c r="D25" s="10">
+        <v>12200</v>
+      </c>
+      <c r="E25" s="10">
+        <v>8800</v>
+      </c>
+      <c r="F25" s="10">
+        <v>6200</v>
+      </c>
+      <c r="G25" s="10">
+        <v>3300</v>
+      </c>
+      <c r="H25" s="10">
+        <v>2100</v>
+      </c>
+      <c r="I25" s="12">
+        <v>1</v>
+      </c>
+      <c r="J25" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="10">
+        <v>75</v>
+      </c>
+      <c r="B26" s="10">
+        <v>21400</v>
+      </c>
+      <c r="C26" s="10">
+        <v>14000</v>
+      </c>
+      <c r="D26" s="10">
+        <v>12800</v>
+      </c>
+      <c r="E26" s="10">
+        <v>9200</v>
+      </c>
+      <c r="F26" s="10">
+        <v>6500</v>
+      </c>
+      <c r="G26" s="10">
+        <v>3450</v>
+      </c>
+      <c r="H26" s="10">
+        <v>2200</v>
+      </c>
+      <c r="I26" s="11">
+        <v>1</v>
+      </c>
+      <c r="J26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="10">
+        <v>80</v>
+      </c>
+      <c r="B27" s="10">
+        <v>22200</v>
+      </c>
+      <c r="C27" s="10">
+        <v>14500</v>
+      </c>
+      <c r="D27" s="10">
+        <v>13400</v>
+      </c>
+      <c r="E27" s="10">
+        <v>9600</v>
+      </c>
+      <c r="F27" s="10">
+        <v>6800</v>
+      </c>
+      <c r="G27" s="10">
+        <v>3600</v>
+      </c>
+      <c r="H27" s="10">
+        <v>2300</v>
+      </c>
+      <c r="I27" s="12">
+        <v>1</v>
+      </c>
+      <c r="J27" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="10">
+        <v>85</v>
+      </c>
+      <c r="B28" s="10">
+        <v>23000</v>
+      </c>
+      <c r="C28" s="10">
+        <v>15000</v>
+      </c>
+      <c r="D28" s="10">
+        <v>14000</v>
+      </c>
+      <c r="E28" s="10">
+        <v>10000</v>
+      </c>
+      <c r="F28" s="10">
+        <v>7100</v>
+      </c>
+      <c r="G28" s="10">
+        <v>3750</v>
+      </c>
+      <c r="H28" s="10">
+        <v>2400</v>
+      </c>
+      <c r="I28" s="11">
+        <v>1</v>
+      </c>
+      <c r="J28" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="10">
+        <v>90</v>
+      </c>
+      <c r="B29" s="10">
+        <v>23800</v>
+      </c>
+      <c r="C29" s="10">
+        <v>15500</v>
+      </c>
+      <c r="D29" s="10">
+        <v>14600</v>
+      </c>
+      <c r="E29" s="10">
+        <v>10400</v>
+      </c>
+      <c r="F29" s="10">
+        <v>7400</v>
+      </c>
+      <c r="G29" s="10">
+        <v>3900</v>
+      </c>
+      <c r="H29" s="10">
+        <v>2500</v>
+      </c>
+      <c r="I29" s="12">
+        <v>1</v>
+      </c>
+      <c r="J29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>95</v>
+      </c>
+      <c r="B30" s="10">
+        <v>24600</v>
+      </c>
+      <c r="C30" s="10">
+        <v>16000</v>
+      </c>
+      <c r="D30" s="10">
+        <v>15200</v>
+      </c>
+      <c r="E30" s="10">
+        <v>10800</v>
+      </c>
+      <c r="F30" s="10">
+        <v>7700</v>
+      </c>
+      <c r="G30" s="10">
+        <v>4050</v>
+      </c>
+      <c r="H30" s="10">
+        <v>2600</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="10">
+        <v>100</v>
+      </c>
+      <c r="B31" s="10">
+        <v>25400</v>
+      </c>
+      <c r="C31" s="10">
+        <v>16500</v>
+      </c>
+      <c r="D31" s="10">
+        <v>15800</v>
+      </c>
+      <c r="E31" s="10">
+        <v>11200</v>
+      </c>
+      <c r="F31" s="10">
+        <v>8000</v>
+      </c>
+      <c r="G31" s="10">
+        <v>4200</v>
+      </c>
+      <c r="H31" s="10">
+        <v>2700</v>
+      </c>
+      <c r="I31" s="12">
+        <v>1</v>
+      </c>
+      <c r="J31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="10">
+        <v>105</v>
+      </c>
+      <c r="B32" s="10">
+        <v>26200</v>
+      </c>
+      <c r="C32" s="10">
+        <v>17000</v>
+      </c>
+      <c r="D32" s="10">
+        <v>16400</v>
+      </c>
+      <c r="E32" s="10">
+        <v>11600</v>
+      </c>
+      <c r="F32" s="10">
+        <v>8300</v>
+      </c>
+      <c r="G32" s="10">
+        <v>4350</v>
+      </c>
+      <c r="H32" s="10">
+        <v>2800</v>
+      </c>
+      <c r="I32" s="11">
+        <v>1</v>
+      </c>
+      <c r="J32" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="10">
+        <v>110</v>
+      </c>
+      <c r="B33" s="10">
+        <v>27000</v>
+      </c>
+      <c r="C33" s="10">
+        <v>17500</v>
+      </c>
+      <c r="D33" s="10">
+        <v>17000</v>
+      </c>
+      <c r="E33" s="10">
+        <v>12000</v>
+      </c>
+      <c r="F33" s="10">
+        <v>8600</v>
+      </c>
+      <c r="G33" s="10">
+        <v>4500</v>
+      </c>
+      <c r="H33" s="10">
+        <v>2900</v>
+      </c>
+      <c r="I33" s="12">
+        <v>1</v>
+      </c>
+      <c r="J33" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="10">
+        <v>115</v>
+      </c>
+      <c r="B34" s="10">
+        <v>27800</v>
+      </c>
+      <c r="C34" s="10">
+        <v>18000</v>
+      </c>
+      <c r="D34" s="10">
+        <v>17600</v>
+      </c>
+      <c r="E34" s="10">
+        <v>12400</v>
+      </c>
+      <c r="F34" s="10">
+        <v>8900</v>
+      </c>
+      <c r="G34" s="10">
+        <v>4650</v>
+      </c>
+      <c r="H34" s="10">
+        <v>3000</v>
+      </c>
+      <c r="I34" s="11">
+        <v>1</v>
+      </c>
+      <c r="J34" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="10">
+        <v>120</v>
+      </c>
+      <c r="B35" s="10">
+        <v>28600</v>
+      </c>
+      <c r="C35" s="10">
+        <v>18500</v>
+      </c>
+      <c r="D35" s="10">
+        <v>18200</v>
+      </c>
+      <c r="E35" s="10">
+        <v>12800</v>
+      </c>
+      <c r="F35" s="10">
+        <v>9200</v>
+      </c>
+      <c r="G35" s="10">
+        <v>4800</v>
+      </c>
+      <c r="H35" s="10">
+        <v>3100</v>
+      </c>
+      <c r="I35" s="12">
+        <v>1</v>
+      </c>
+      <c r="J35" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="10">
+        <v>125</v>
+      </c>
+      <c r="B36" s="10">
+        <v>29400</v>
+      </c>
+      <c r="C36" s="10">
+        <v>19000</v>
+      </c>
+      <c r="D36" s="10">
+        <v>18800</v>
+      </c>
+      <c r="E36" s="10">
+        <v>13200</v>
+      </c>
+      <c r="F36" s="10">
+        <v>9500</v>
+      </c>
+      <c r="G36" s="10">
+        <v>4950</v>
+      </c>
+      <c r="H36" s="10">
+        <v>3200</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1</v>
+      </c>
+      <c r="J36" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="10">
+        <v>130</v>
+      </c>
+      <c r="B37" s="10">
+        <v>30200</v>
+      </c>
+      <c r="C37" s="10">
+        <v>19500</v>
+      </c>
+      <c r="D37" s="10">
+        <v>19400</v>
+      </c>
+      <c r="E37" s="10">
+        <v>13600</v>
+      </c>
+      <c r="F37" s="10">
+        <v>9800</v>
+      </c>
+      <c r="G37" s="10">
+        <v>5100</v>
+      </c>
+      <c r="H37" s="10">
+        <v>3300</v>
+      </c>
+      <c r="I37" s="12">
+        <v>1</v>
+      </c>
+      <c r="J37" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="10">
+        <v>135</v>
+      </c>
+      <c r="B38" s="10">
+        <v>31000</v>
+      </c>
+      <c r="C38" s="10">
+        <v>20000</v>
+      </c>
+      <c r="D38" s="10">
+        <v>20000</v>
+      </c>
+      <c r="E38" s="10">
+        <v>14000</v>
+      </c>
+      <c r="F38" s="10">
+        <v>10100</v>
+      </c>
+      <c r="G38" s="10">
+        <v>5250</v>
+      </c>
+      <c r="H38" s="10">
+        <v>3400</v>
+      </c>
+      <c r="I38" s="11">
+        <v>1</v>
+      </c>
+      <c r="J38" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="10">
+        <v>140</v>
+      </c>
+      <c r="B39" s="10">
+        <v>31800</v>
+      </c>
+      <c r="C39" s="10">
+        <v>20500</v>
+      </c>
+      <c r="D39" s="10">
+        <v>20600</v>
+      </c>
+      <c r="E39" s="10">
+        <v>14400</v>
+      </c>
+      <c r="F39" s="10">
+        <v>10400</v>
+      </c>
+      <c r="G39" s="10">
+        <v>5400</v>
+      </c>
+      <c r="H39" s="10">
+        <v>3500</v>
+      </c>
+      <c r="I39" s="12">
+        <v>1</v>
+      </c>
+      <c r="J39" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10">
+        <v>145</v>
+      </c>
+      <c r="B40" s="10">
+        <v>32600</v>
+      </c>
+      <c r="C40" s="10">
+        <v>21000</v>
+      </c>
+      <c r="D40" s="10">
+        <v>21200</v>
+      </c>
+      <c r="E40" s="10">
+        <v>14800</v>
+      </c>
+      <c r="F40" s="10">
+        <v>10700</v>
+      </c>
+      <c r="G40" s="10">
+        <v>5550</v>
+      </c>
+      <c r="H40" s="10">
+        <v>3600</v>
+      </c>
+      <c r="I40" s="11">
+        <v>1</v>
+      </c>
+      <c r="J40" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="10">
+        <v>150</v>
+      </c>
+      <c r="B41" s="10">
+        <v>33400</v>
+      </c>
+      <c r="C41" s="10">
+        <v>21500</v>
+      </c>
+      <c r="D41" s="10">
+        <v>21800</v>
+      </c>
+      <c r="E41" s="10">
+        <v>15200</v>
+      </c>
+      <c r="F41" s="10">
+        <v>11000</v>
+      </c>
+      <c r="G41" s="10">
+        <v>5700</v>
+      </c>
+      <c r="H41" s="10">
+        <v>3700</v>
+      </c>
+      <c r="I41" s="12">
+        <v>1</v>
+      </c>
+      <c r="J41" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="10">
+        <v>155</v>
+      </c>
+      <c r="B42" s="10">
+        <v>34200</v>
+      </c>
+      <c r="C42" s="10">
+        <v>22000</v>
+      </c>
+      <c r="D42" s="10">
+        <v>22400</v>
+      </c>
+      <c r="E42" s="10">
+        <v>15600</v>
+      </c>
+      <c r="F42" s="10">
+        <v>11300</v>
+      </c>
+      <c r="G42" s="10">
+        <v>5850</v>
+      </c>
+      <c r="H42" s="10">
+        <v>3800</v>
+      </c>
+      <c r="I42" s="11">
+        <v>1</v>
+      </c>
+      <c r="J42" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="10">
+        <v>160</v>
+      </c>
+      <c r="B43" s="10">
+        <v>35000</v>
+      </c>
+      <c r="C43" s="10">
+        <v>22500</v>
+      </c>
+      <c r="D43" s="10">
+        <v>23000</v>
+      </c>
+      <c r="E43" s="10">
+        <v>16000</v>
+      </c>
+      <c r="F43" s="10">
+        <v>11600</v>
+      </c>
+      <c r="G43" s="10">
+        <v>6000</v>
+      </c>
+      <c r="H43" s="10">
+        <v>3900</v>
+      </c>
+      <c r="I43" s="12">
+        <v>1</v>
+      </c>
+      <c r="J43" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="10">
+        <v>165</v>
+      </c>
+      <c r="B44" s="10">
+        <v>35800</v>
+      </c>
+      <c r="C44" s="10">
+        <v>23000</v>
+      </c>
+      <c r="D44" s="10">
+        <v>23600</v>
+      </c>
+      <c r="E44" s="10">
+        <v>16400</v>
+      </c>
+      <c r="F44" s="10">
+        <v>11900</v>
+      </c>
+      <c r="G44" s="10">
+        <v>6150</v>
+      </c>
+      <c r="H44" s="10">
+        <v>4000</v>
+      </c>
+      <c r="I44" s="11">
+        <v>1</v>
+      </c>
+      <c r="J44" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="10">
+        <v>170</v>
+      </c>
+      <c r="B45" s="10">
+        <v>36600</v>
+      </c>
+      <c r="C45" s="10">
+        <v>23500</v>
+      </c>
+      <c r="D45" s="10">
+        <v>24200</v>
+      </c>
+      <c r="E45" s="10">
+        <v>16800</v>
+      </c>
+      <c r="F45" s="10">
+        <v>12200</v>
+      </c>
+      <c r="G45" s="10">
+        <v>6300</v>
+      </c>
+      <c r="H45" s="10">
+        <v>4100</v>
+      </c>
+      <c r="I45" s="12">
+        <v>1</v>
+      </c>
+      <c r="J45" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="10">
+        <v>175</v>
+      </c>
+      <c r="B46" s="10">
+        <v>37400</v>
+      </c>
+      <c r="C46" s="10">
+        <v>24000</v>
+      </c>
+      <c r="D46" s="10">
+        <v>24800</v>
+      </c>
+      <c r="E46" s="10">
+        <v>17200</v>
+      </c>
+      <c r="F46" s="10">
+        <v>12500</v>
+      </c>
+      <c r="G46" s="10">
+        <v>6450</v>
+      </c>
+      <c r="H46" s="10">
+        <v>4200</v>
+      </c>
+      <c r="I46" s="11">
+        <v>1</v>
+      </c>
+      <c r="J46" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10">
+        <v>180</v>
+      </c>
+      <c r="B47" s="10">
+        <v>38200</v>
+      </c>
+      <c r="C47" s="10">
+        <v>24500</v>
+      </c>
+      <c r="D47" s="10">
+        <v>25400</v>
+      </c>
+      <c r="E47" s="10">
+        <v>17600</v>
+      </c>
+      <c r="F47" s="10">
+        <v>12800</v>
+      </c>
+      <c r="G47" s="10">
+        <v>6600</v>
+      </c>
+      <c r="H47" s="10">
+        <v>4300</v>
+      </c>
+      <c r="I47" s="12">
+        <v>1</v>
+      </c>
+      <c r="J47" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10">
+        <v>185</v>
+      </c>
+      <c r="B48" s="10">
+        <v>39000</v>
+      </c>
+      <c r="C48" s="10">
+        <v>25000</v>
+      </c>
+      <c r="D48" s="10">
+        <v>26000</v>
+      </c>
+      <c r="E48" s="10">
+        <v>18000</v>
+      </c>
+      <c r="F48" s="10">
+        <v>13100</v>
+      </c>
+      <c r="G48" s="10">
+        <v>6750</v>
+      </c>
+      <c r="H48" s="10">
+        <v>4400</v>
+      </c>
+      <c r="I48" s="11">
+        <v>1</v>
+      </c>
+      <c r="J48" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10">
+        <v>190</v>
+      </c>
+      <c r="B49" s="10">
+        <v>39800</v>
+      </c>
+      <c r="C49" s="10">
+        <v>25500</v>
+      </c>
+      <c r="D49" s="10">
+        <v>26600</v>
+      </c>
+      <c r="E49" s="10">
+        <v>18400</v>
+      </c>
+      <c r="F49" s="10">
+        <v>13400</v>
+      </c>
+      <c r="G49" s="10">
+        <v>6900</v>
+      </c>
+      <c r="H49" s="10">
+        <v>4500</v>
+      </c>
+      <c r="I49" s="12">
+        <v>1</v>
+      </c>
+      <c r="J49" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10">
+        <v>195</v>
+      </c>
+      <c r="B50" s="10">
+        <v>40600</v>
+      </c>
+      <c r="C50" s="10">
+        <v>26000</v>
+      </c>
+      <c r="D50" s="10">
+        <v>27200</v>
+      </c>
+      <c r="E50" s="10">
+        <v>18800</v>
+      </c>
+      <c r="F50" s="10">
+        <v>13700</v>
+      </c>
+      <c r="G50" s="10">
+        <v>7050</v>
+      </c>
+      <c r="H50" s="10">
+        <v>4600</v>
+      </c>
+      <c r="I50" s="11">
+        <v>1</v>
+      </c>
+      <c r="J50" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="10">
+        <v>200</v>
+      </c>
+      <c r="B51" s="10">
+        <v>41400</v>
+      </c>
+      <c r="C51" s="10">
+        <v>26500</v>
+      </c>
+      <c r="D51" s="10">
+        <v>27800</v>
+      </c>
+      <c r="E51" s="10">
+        <v>19200</v>
+      </c>
+      <c r="F51" s="10">
+        <v>14000</v>
+      </c>
+      <c r="G51" s="10">
+        <v>7200</v>
+      </c>
+      <c r="H51" s="10">
+        <v>4700</v>
+      </c>
+      <c r="I51" s="12">
+        <v>1</v>
+      </c>
+      <c r="J51" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10">
+        <v>205</v>
+      </c>
+      <c r="B52" s="10">
+        <v>42200</v>
+      </c>
+      <c r="C52" s="10">
+        <v>27000</v>
+      </c>
+      <c r="D52" s="10">
+        <v>28400</v>
+      </c>
+      <c r="E52" s="10">
+        <v>19600</v>
+      </c>
+      <c r="F52" s="10">
+        <v>14300</v>
+      </c>
+      <c r="G52" s="10">
+        <v>7350</v>
+      </c>
+      <c r="H52" s="10">
+        <v>4800</v>
+      </c>
+      <c r="I52" s="11">
+        <v>1</v>
+      </c>
+      <c r="J52" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10">
+        <v>210</v>
+      </c>
+      <c r="B53" s="10">
+        <v>43000</v>
+      </c>
+      <c r="C53" s="10">
+        <v>27500</v>
+      </c>
+      <c r="D53" s="10">
+        <v>29000</v>
+      </c>
+      <c r="E53" s="10">
+        <v>20000</v>
+      </c>
+      <c r="F53" s="10">
+        <v>14600</v>
+      </c>
+      <c r="G53" s="10">
+        <v>7500</v>
+      </c>
+      <c r="H53" s="10">
+        <v>4900</v>
+      </c>
+      <c r="I53" s="12">
+        <v>1</v>
+      </c>
+      <c r="J53" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>215</v>
+      </c>
+      <c r="B54" s="10">
+        <v>43800</v>
+      </c>
+      <c r="C54" s="10">
+        <v>28000</v>
+      </c>
+      <c r="D54" s="10">
+        <v>29600</v>
+      </c>
+      <c r="E54" s="10">
+        <v>20400</v>
+      </c>
+      <c r="F54" s="10">
+        <v>14900</v>
+      </c>
+      <c r="G54" s="10">
+        <v>7650</v>
+      </c>
+      <c r="H54" s="10">
+        <v>5000</v>
+      </c>
+      <c r="I54" s="11">
+        <v>1</v>
+      </c>
+      <c r="J54" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>220</v>
+      </c>
+      <c r="B55" s="10">
+        <v>44600</v>
+      </c>
+      <c r="C55" s="10">
+        <v>28500</v>
+      </c>
+      <c r="D55" s="10">
+        <v>30200</v>
+      </c>
+      <c r="E55" s="10">
+        <v>20800</v>
+      </c>
+      <c r="F55" s="10">
+        <v>15200</v>
+      </c>
+      <c r="G55" s="10">
+        <v>7800</v>
+      </c>
+      <c r="H55" s="10">
+        <v>5100</v>
+      </c>
+      <c r="I55" s="12">
+        <v>1</v>
+      </c>
+      <c r="J55" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>225</v>
+      </c>
+      <c r="B56" s="10">
+        <v>45400</v>
+      </c>
+      <c r="C56" s="10">
+        <v>29000</v>
+      </c>
+      <c r="D56" s="10">
+        <v>30800</v>
+      </c>
+      <c r="E56" s="10">
+        <v>21200</v>
+      </c>
+      <c r="F56" s="10">
+        <v>15500</v>
+      </c>
+      <c r="G56" s="10">
+        <v>7950</v>
+      </c>
+      <c r="H56" s="10">
+        <v>5200</v>
+      </c>
+      <c r="I56" s="11">
+        <v>1</v>
+      </c>
+      <c r="J56" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>230</v>
+      </c>
+      <c r="B57" s="10">
+        <v>46200</v>
+      </c>
+      <c r="C57" s="10">
+        <v>29500</v>
+      </c>
+      <c r="D57" s="10">
+        <v>31400</v>
+      </c>
+      <c r="E57" s="10">
+        <v>21600</v>
+      </c>
+      <c r="F57" s="10">
+        <v>15800</v>
+      </c>
+      <c r="G57" s="10">
+        <v>8100</v>
+      </c>
+      <c r="H57" s="10">
+        <v>5300</v>
+      </c>
+      <c r="I57" s="12">
+        <v>1</v>
+      </c>
+      <c r="J57" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10">
+        <v>235</v>
+      </c>
+      <c r="B58" s="10">
+        <v>47000</v>
+      </c>
+      <c r="C58" s="10">
+        <v>30000</v>
+      </c>
+      <c r="D58" s="10">
+        <v>32000</v>
+      </c>
+      <c r="E58" s="10">
+        <v>22000</v>
+      </c>
+      <c r="F58" s="10">
+        <v>16100</v>
+      </c>
+      <c r="G58" s="10">
+        <v>8250</v>
+      </c>
+      <c r="H58" s="10">
+        <v>5400</v>
+      </c>
+      <c r="I58" s="11">
+        <v>1</v>
+      </c>
+      <c r="J58" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10">
+        <v>240</v>
+      </c>
+      <c r="B59" s="10">
+        <v>47800</v>
+      </c>
+      <c r="C59" s="10">
+        <v>30500</v>
+      </c>
+      <c r="D59" s="10">
+        <v>32600</v>
+      </c>
+      <c r="E59" s="10">
+        <v>22400</v>
+      </c>
+      <c r="F59" s="10">
+        <v>16400</v>
+      </c>
+      <c r="G59" s="10">
+        <v>8400</v>
+      </c>
+      <c r="H59" s="10">
+        <v>5500</v>
+      </c>
+      <c r="I59" s="12">
+        <v>1</v>
+      </c>
+      <c r="J59" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10">
+        <v>245</v>
+      </c>
+      <c r="B60" s="10">
+        <v>48600</v>
+      </c>
+      <c r="C60" s="10">
+        <v>31000</v>
+      </c>
+      <c r="D60" s="10">
+        <v>33200</v>
+      </c>
+      <c r="E60" s="10">
+        <v>22800</v>
+      </c>
+      <c r="F60" s="10">
+        <v>16700</v>
+      </c>
+      <c r="G60" s="10">
+        <v>8550</v>
+      </c>
+      <c r="H60" s="10">
+        <v>5600</v>
+      </c>
+      <c r="I60" s="11">
+        <v>1</v>
+      </c>
+      <c r="J60" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="10">
+        <v>250</v>
+      </c>
+      <c r="B61" s="10">
+        <v>49400</v>
+      </c>
+      <c r="C61" s="10">
+        <v>31500</v>
+      </c>
+      <c r="D61" s="10">
+        <v>33800</v>
+      </c>
+      <c r="E61" s="10">
+        <v>23200</v>
+      </c>
+      <c r="F61" s="10">
+        <v>17000</v>
+      </c>
+      <c r="G61" s="10">
+        <v>8700</v>
+      </c>
+      <c r="H61" s="10">
+        <v>5700</v>
+      </c>
+      <c r="I61" s="12">
+        <v>1</v>
+      </c>
+      <c r="J61" s="12">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
